--- a/wind_atlas_recommend.xlsx
+++ b/wind_atlas_recommend.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>청송</x:t>
   </x:si>
@@ -30,9 +30,6 @@
     <x:t xml:space="preserve">위도 </x:t>
   </x:si>
   <x:si>
-    <x:t>NaN</x:t>
-  </x:si>
-  <x:si>
     <x:t>평창</x:t>
   </x:si>
   <x:si>
@@ -85,9 +82,6 @@
   </x:si>
   <x:si>
     <x:t>평균기온(℃)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상대습도(%)</x:t>
   </x:si>
   <x:si>
     <x:t>최저기온(℃)</x:t>
@@ -198,7 +192,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -259,9 +253,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
@@ -995,31 +986,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:L25"/>
+  <x:dimension ref="A1:K25"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F12" activeCellId="0" sqref="F12:F12"/>
+    <x:sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="M11" activeCellId="0" sqref="M11:M11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="53.25" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <x:col min="2" max="2" width="11.75" style="2" customWidth="1"/>
     <x:col min="3" max="3" width="12.08203125" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="24.25" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="16.08203125" style="2" customWidth="1"/>
     <x:col min="5" max="5" width="16.66796875" style="2" customWidth="1"/>
     <x:col min="6" max="6" width="10.91796875" style="2" customWidth="1"/>
     <x:col min="7" max="7" width="11.08203125" style="2" customWidth="1"/>
     <x:col min="8" max="8" width="11.41796875" style="2" customWidth="1"/>
     <x:col min="9" max="9" width="11.75" style="2" customWidth="1"/>
     <x:col min="10" max="10" width="12.66796875" style="2" customWidth="1"/>
-    <x:col min="11" max="11" width="15.66796875" style="2" customWidth="1"/>
-    <x:col min="12" max="12" width="11.66796875" style="2" customWidth="1"/>
+    <x:col min="11" max="11" width="11.66796875" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>2</x:v>
@@ -1028,47 +1018,44 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K1" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J1" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K1" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L1" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12">
-      <x:c r="A2" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="7">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E2" s="11">
+      <x:c r="E2" s="10">
         <x:v>500000</x:v>
       </x:c>
       <x:c r="F2" s="9">
@@ -1086,27 +1073,24 @@
       <x:c r="J2" s="9">
         <x:v>3.7999999999999998</x:v>
       </x:c>
-      <x:c r="K2" s="9">
-        <x:v>73.299999999999997</x:v>
-      </x:c>
-      <x:c r="L2" s="8">
+      <x:c r="K2" s="8">
         <x:v>883.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:12">
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="7">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="E3" s="11">
+      <x:c r="E3" s="10">
         <x:v>350000</x:v>
       </x:c>
       <x:c r="F3" s="9">
@@ -1124,27 +1108,24 @@
       <x:c r="J3" s="9">
         <x:v>1.3999999999999999</x:v>
       </x:c>
-      <x:c r="K3" s="9">
-        <x:v>69.700000000000003</x:v>
-      </x:c>
-      <x:c r="L3" s="1">
+      <x:c r="K3" s="1">
         <x:v>633.13999999999999</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:12">
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="7">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="E4" s="11">
+      <x:c r="E4" s="10">
         <x:v>400000</x:v>
       </x:c>
       <x:c r="F4" s="9">
@@ -1162,27 +1143,24 @@
       <x:c r="J4" s="9">
         <x:v>2.2000000000000002</x:v>
       </x:c>
-      <x:c r="K4" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L4" s="1">
+      <x:c r="K4" s="1">
         <x:v>39.630000000000003</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:12">
+    <x:row r="5" spans="1:11">
       <x:c r="A5" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E5" s="11">
+      <x:c r="E5" s="10">
         <x:v>300000</x:v>
       </x:c>
       <x:c r="F5" s="9">
@@ -1200,27 +1178,24 @@
       <x:c r="J5" s="9">
         <x:v>1.8999999999999999</x:v>
       </x:c>
-      <x:c r="K5" s="9">
-        <x:v>72.599999999999994</x:v>
-      </x:c>
-      <x:c r="L5" s="1">
+      <x:c r="K5" s="1">
         <x:v>0.70999999999999996</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:12">
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="7">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E6" s="11">
+      <x:c r="E6" s="10">
         <x:v>280000</x:v>
       </x:c>
       <x:c r="F6" s="9">
@@ -1238,14 +1213,11 @@
       <x:c r="J6" s="9">
         <x:v>1.7</x:v>
       </x:c>
-      <x:c r="K6" s="9">
-        <x:v>65.200000000000003</x:v>
-      </x:c>
-      <x:c r="L6" s="1">
+      <x:c r="K6" s="1">
         <x:v>85.980000000000004</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:12">
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="6"/>
       <x:c r="B7" s="6"/>
       <x:c r="C7" s="6"/>
@@ -1257,7 +1229,6 @@
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="1"/>
       <x:c r="K7" s="1"/>
-      <x:c r="L7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="6"/>
